--- a/data/financial_statements/soci/HBAN.xlsx
+++ b/data/financial_statements/soci/HBAN.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,1295 +581,1325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1899000000</v>
+        <v>2353000000</v>
       </c>
       <c r="C2">
-        <v>1711000000</v>
+        <v>2087000000</v>
       </c>
       <c r="D2">
-        <v>1675000000</v>
+        <v>1816000000</v>
       </c>
       <c r="E2">
-        <v>1633000000</v>
+        <v>1694000000</v>
       </c>
       <c r="F2">
-        <v>1671000000</v>
+        <v>1697000000</v>
       </c>
       <c r="G2">
+        <v>1740000000</v>
+      </c>
+      <c r="H2">
         <v>1379000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1264000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1287000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1322000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1293000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1336000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1383000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1441000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1442000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1389000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1385000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1349000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1308000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1228000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1234000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1203000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1171000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1132000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1149351000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>996761000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>836770000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>799118000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>817117100</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>791596000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>811568000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>733719000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>740903300</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>748409000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>745389000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>720940000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>719716100</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>716679000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>714501000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>721937000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.1364</v>
+        <v>0.3866</v>
       </c>
       <c r="C3">
-        <v>0.2408</v>
+        <v>0.1994</v>
       </c>
       <c r="D3">
-        <v>0.3252</v>
+        <v>0.3169</v>
       </c>
       <c r="E3">
-        <v>0.2688</v>
+        <v>0.3402</v>
       </c>
       <c r="F3">
-        <v>0.264</v>
+        <v>0.3186</v>
       </c>
       <c r="G3">
+        <v>0.3162</v>
+      </c>
+      <c r="H3">
         <v>0.0665</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.0539</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.0694</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.08260000000000001</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.1033</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0382</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.0014</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0682</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1024</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.1311</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1224</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1214</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.117</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0848</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0736</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.2069</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.3994</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.4166</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.4066</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.2592</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0311</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0891</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.1029</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0577</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0888</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0177</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0294</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0443</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.0432</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0014</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.0833</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.0378</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.0362</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0566</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>392000000</v>
+      </c>
+      <c r="C4">
         <v>185000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>70000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>49000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>50000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>45000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>97000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-103000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>53000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>75000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>110000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>185000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>231000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>253000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>256000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>248000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>223000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>205000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>188000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>144000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>125000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>115000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>101000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>90000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>80082000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>68956000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>59777000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>54185000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>47458000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>43022000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>39109000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>34411000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>34373000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>34725000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>35274000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>34949000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>39175000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>38060000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>37645000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>41149000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1961000000</v>
+      </c>
+      <c r="C5">
         <v>1902000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1746000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1645000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1647000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1695000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1282000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1367000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1234000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1247000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1183000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1151000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1152000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1188000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1186000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1141000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1162000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1144000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1120000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1084000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1109000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1088000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1070000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1042000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1069269000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>927805000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>776993000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>744933000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>769659100</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>748574000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>772459000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>699308000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>706530300</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>713684000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>710115000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>685991000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>680541100</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>678619000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>676856000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>680788000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>1155000000</v>
+      </c>
+      <c r="C6">
         <v>1146000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1072000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1064000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1143000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1214000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1272000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>723000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>849000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>879000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>992000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1082000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>768000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>737000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>747000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>707000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>758000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>691000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>695000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>685000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>684000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>709000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>705000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>761000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>742474100</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>767006000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>544570100</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>514950000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>531451000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>545071000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>502236000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>469242000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>475112100</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>494985000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>478501000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>475460000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>460020000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>424374000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>460225000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>462065000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>793000000</v>
+      </c>
+      <c r="C7">
         <v>743000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>661000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>567000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>490000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>468000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-1000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>634000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>375000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>358000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>181000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>58000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>372000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>439000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>427000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>421000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>391000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>440000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>412000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>385000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>411000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>365000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>351000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>267000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>313153000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>151753000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>228822900</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>226270900</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>234287000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>199590000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>260263100</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>219860000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>220765100</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>208886000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>222093900</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>201240000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>210201000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>243883000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>206269000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>208403000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>793000000</v>
+      </c>
+      <c r="C8">
         <v>743000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>661000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>567000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>490000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>468000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-1000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>634000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>375000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>358000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>181000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>58000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>372000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>439000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>427000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>421000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>391000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>440000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>412000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>385000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>411000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>365000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>351000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>267000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>313153000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>151753000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>228823000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>226271000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>234287000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>199590000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>260263000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>219860000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>220765000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>208886000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>222094000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>201240000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>210201000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>243883000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>206269000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>208403000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>144000000</v>
+      </c>
+      <c r="C9">
         <v>146000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>120000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>105000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>88000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>90000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>14000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>102000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>59000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>55000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>31000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>10000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>55000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>67000000</v>
-      </c>
-      <c r="O9">
-        <v>63000000</v>
       </c>
       <c r="P9">
         <v>63000000</v>
       </c>
       <c r="Q9">
+        <v>63000000</v>
+      </c>
+      <c r="R9">
         <v>57000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>62000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>57000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>59000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-20000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>90000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>79000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>59000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>74011000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>24749000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>54283000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>54957000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>55935000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>47002000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>64057000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>54006000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>57151000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>53870000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>57475000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>52097000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>52029000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>65047000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>55269000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>55129000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>649000000</v>
+      </c>
+      <c r="C10">
         <v>597000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>541000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>462000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>402000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>378000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-15000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>532000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>316000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>303000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>150000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>48000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>317000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>372000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>364000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>358000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>334000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>378000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>355000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>326000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>431000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>275000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>272000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>208000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>239142000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>127004000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>174540000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>171314000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>178352000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>152588000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>196206000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>165854000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>163614000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>155016000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>164619000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>149143000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>158172000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>178836000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>151000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>153274000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>28000000</v>
+      </c>
+      <c r="C11">
         <v>29000000</v>
-      </c>
-      <c r="C11">
-        <v>28000000</v>
       </c>
       <c r="D11">
         <v>28000000</v>
       </c>
       <c r="E11">
+        <v>28000000</v>
+      </c>
+      <c r="F11">
         <v>24000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>44000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>43000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>31000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>35000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>28000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>19000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>18000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>19000000</v>
-      </c>
-      <c r="N11">
-        <v>18000000</v>
       </c>
       <c r="O11">
         <v>18000000</v>
       </c>
       <c r="P11">
-        <v>19000000</v>
+        <v>18000000</v>
       </c>
       <c r="Q11">
         <v>19000000</v>
       </c>
       <c r="R11">
+        <v>19000000</v>
+      </c>
+      <c r="S11">
         <v>18000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>21000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>12000000</v>
-      </c>
-      <c r="U11">
-        <v>19000000</v>
       </c>
       <c r="V11">
         <v>19000000</v>
@@ -1767,809 +1911,827 @@
         <v>19000000</v>
       </c>
       <c r="Y11">
+        <v>19000000</v>
+      </c>
+      <c r="Z11">
         <v>18591000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>18537000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>19874000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>7998000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>8099000</v>
-      </c>
-      <c r="AD11">
-        <v>7968000</v>
       </c>
       <c r="AE11">
         <v>7968000</v>
       </c>
       <c r="AF11">
+        <v>7968000</v>
+      </c>
+      <c r="AG11">
         <v>7965000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>7963000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>7964000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>7963000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>7964000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>7965000</v>
-      </c>
-      <c r="AL11">
-        <v>7967000</v>
       </c>
       <c r="AM11">
         <v>7967000</v>
       </c>
       <c r="AN11">
+        <v>7967000</v>
+      </c>
+      <c r="AO11">
         <v>7970000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>4000000</v>
+      </c>
+      <c r="C12">
         <v>3000000</v>
-      </c>
-      <c r="C12">
-        <v>2000000</v>
       </c>
       <c r="D12">
         <v>2000000</v>
       </c>
       <c r="E12">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="F12">
         <v>1000000</v>
       </c>
+      <c r="G12">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>617000000</v>
+      </c>
+      <c r="C13">
         <v>565000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>511000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>432000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>377000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>333000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-58000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>501000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>281000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>275000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>131000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>30000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>298000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>354000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>346000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>339000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>315000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>360000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>334000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>314000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>412000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>256000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>253000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>189000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>220551000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>108467000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>154666000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>163316000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>170253000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>144620000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>188238000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>157889000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>155651000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>147052000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>156656000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>141179000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>150207000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>170869000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>143033000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>145304000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>0.39</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.35</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.26</v>
       </c>
-      <c r="F14">
-        <v>0.22</v>
-      </c>
       <c r="G14">
+        <v>0.23</v>
+      </c>
+      <c r="H14">
         <v>0.41</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.49</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.28</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.27</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.13</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.03</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.29</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0.34</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.33</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.32</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.3</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.33</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>0.3</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>0.29</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.38</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>0.24</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>0.23</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>0.17</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>0.18</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>0.12</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>0.19</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>0.2</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>0.21</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>0.18</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>0.23</v>
-      </c>
-      <c r="AF14">
-        <v>0.19</v>
       </c>
       <c r="AG14">
         <v>0.19</v>
       </c>
       <c r="AH14">
+        <v>0.19</v>
+      </c>
+      <c r="AI14">
         <v>0.18</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>0.19</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>0.17</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>0.18</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>0.21</v>
-      </c>
-      <c r="AM14">
-        <v>0.17</v>
       </c>
       <c r="AN14">
         <v>0.17</v>
       </c>
+      <c r="AO14">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>0.39</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.35</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.29</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.26</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.22</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.4</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.48</v>
-      </c>
-      <c r="I15">
-        <v>0.27</v>
       </c>
       <c r="J15">
         <v>0.27</v>
       </c>
       <c r="K15">
+        <v>0.27</v>
+      </c>
+      <c r="L15">
         <v>0.13</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.03</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.28</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.34</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.33</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.32</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.29</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.33</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.3</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.28</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.37</v>
-      </c>
-      <c r="V15">
-        <v>0.23</v>
       </c>
       <c r="W15">
         <v>0.23</v>
       </c>
       <c r="X15">
+        <v>0.23</v>
+      </c>
+      <c r="Y15">
         <v>0.17</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>0.18</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.11</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0.19</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>0.2</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.21</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.18</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>0.23</v>
-      </c>
-      <c r="AF15">
-        <v>0.19</v>
       </c>
       <c r="AG15">
         <v>0.19</v>
       </c>
       <c r="AH15">
+        <v>0.19</v>
+      </c>
+      <c r="AI15">
         <v>0.18</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.19</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>0.17</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.18</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>0.2</v>
-      </c>
-      <c r="AM15">
-        <v>0.17</v>
       </c>
       <c r="AN15">
         <v>0.17</v>
       </c>
+      <c r="AO15">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1443000000</v>
       </c>
       <c r="C16">
-        <v>1441000000</v>
+        <v>1442591000</v>
       </c>
       <c r="D16">
-        <v>1438000000</v>
+        <v>1441200000</v>
       </c>
       <c r="E16">
-        <v>1444000000</v>
+        <v>1438427000</v>
       </c>
       <c r="F16">
-        <v>1463000000</v>
+        <v>1262435000</v>
       </c>
       <c r="G16">
+        <v>1462736000</v>
+      </c>
+      <c r="H16">
         <v>1125039000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1017512000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1017117000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1017253000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1016259000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1017643000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1038840000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1034940000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1044802000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1046995000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1081542000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1084536000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1103337000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1083836000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1084686000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1086038000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1088934000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1086374000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>904438000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>938578000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>798167000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>795755000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>803412000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>800883000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>806891000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>809778000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>819917000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>816497000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>821546000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>829659000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>834205000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>830398000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>834730000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>841103000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>1465000000</v>
+        <v>1468000000</v>
       </c>
       <c r="C17">
-        <v>1463000000</v>
+        <v>1465083000</v>
       </c>
       <c r="D17">
-        <v>1464000000</v>
+        <v>1463293000</v>
       </c>
       <c r="E17">
-        <v>1471000000</v>
+        <v>1464327000</v>
       </c>
       <c r="F17">
-        <v>1487000000</v>
+        <v>1286733000</v>
       </c>
       <c r="G17">
+        <v>1487335000</v>
+      </c>
+      <c r="H17">
         <v>1125039000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1041003000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1032683000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1031460000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1028683000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1034576000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1056079000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1051273000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1060280000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1065638000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1105985000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1103740000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1122612000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1124778000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1136186000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1106491000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1108527000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1108617000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>918790000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>952081000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>810371000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>808349000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>817129000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>814326000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>820238000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>823809000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>833081000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>829623000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>834687000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>842677000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>843974000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>841025000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>843840000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>848708000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>1.0016</v>
+        <v>0.8334</v>
       </c>
       <c r="C18">
-        <v>1.0205</v>
+        <v>0.9114</v>
       </c>
       <c r="D18">
-        <v>0.9821</v>
+        <v>0.9615</v>
       </c>
       <c r="E18">
-        <v>1.0086</v>
+        <v>0.9711</v>
       </c>
       <c r="F18">
-        <v>1.0144</v>
+        <v>0.9705</v>
       </c>
       <c r="G18">
+        <v>0.9741</v>
+      </c>
+      <c r="H18">
         <v>0.9297</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.0815</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.9588</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.9433</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.9149</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.8615</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.833</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.8244</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.8225</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.8215</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.839</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.848</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.8563</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.8827</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.8987000000000001</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.9044</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.9137</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.9205</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.9303</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.9308</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.9286</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.9322</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.9419</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.9457</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.9518</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.9530999999999999</v>
-      </c>
-      <c r="AG18">
-        <v>0.9536</v>
       </c>
       <c r="AH18">
         <v>0.9536</v>
       </c>
       <c r="AI18">
+        <v>0.9536</v>
+      </c>
+      <c r="AJ18">
         <v>0.9527</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.9515</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.9456</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.9469</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.9473</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.9429999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2688,1108 +2850,1135 @@
       <c r="AN19">
         <v>0</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>0.3913</v>
+        <v>0.337</v>
       </c>
       <c r="C20">
-        <v>0.3863</v>
+        <v>0.356</v>
       </c>
       <c r="D20">
-        <v>0.3385</v>
+        <v>0.364</v>
       </c>
       <c r="E20">
-        <v>0.3001</v>
+        <v>0.3347</v>
       </c>
       <c r="F20">
-        <v>0.2801</v>
+        <v>0.2887</v>
       </c>
       <c r="G20">
+        <v>0.269</v>
+      </c>
+      <c r="H20">
         <v>-0.0007</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.5016</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.2914</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.2708</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.14</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.0434</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.269</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.3046</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.2961</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.3031</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.2823</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.3262</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.315</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.3135</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.3331</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.3034</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.2997</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.2359</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.2725</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.1522</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.2735</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.2832</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.2867</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.2521</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.3207</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.2997</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.298</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.2791</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.298</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.2791</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.2921</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.3403</v>
-      </c>
-      <c r="AM20">
-        <v>0.2887</v>
       </c>
       <c r="AN20">
         <v>0.2887</v>
       </c>
+      <c r="AO20">
+        <v>0.2887</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>0.2975</v>
+        <v>0.2622</v>
       </c>
       <c r="C21">
-        <v>0.2987</v>
+        <v>0.2707</v>
       </c>
       <c r="D21">
-        <v>0.2579</v>
+        <v>0.2814</v>
       </c>
       <c r="E21">
-        <v>0.2309</v>
+        <v>0.255</v>
       </c>
       <c r="F21">
-        <v>0.1993</v>
+        <v>0.2222</v>
       </c>
       <c r="G21">
+        <v>0.1914</v>
+      </c>
+      <c r="H21">
         <v>-0.0421</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.3964</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2183</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.208</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.1013</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.0225</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2155</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2457</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2399</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2441</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.2274</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2669</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2554</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2557</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.3339</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2128</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2161</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.167</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.1919</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.1088</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.1848</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2044</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2084</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.1827</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2319</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.2152</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.2101</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.1965</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2102</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.1958</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.2087</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2384</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2002</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2013</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>649000000</v>
+      </c>
+      <c r="C22">
         <v>597000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>541000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>462000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>402000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>378000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-15000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>532000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>316000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>303000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>150000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>48000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>317000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>372000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>364000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>358000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>334000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>378000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>355000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>326000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>431000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>275000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>272000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>208000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>239142000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>127004000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>174540000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>171314000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>178352000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>152588000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>196206000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>165854000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>163614000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>155016000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>164619000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>149143000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>158172000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>178836000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>151000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>153274000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>649000000</v>
+      </c>
+      <c r="C23">
         <v>597000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>541000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>462000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>402000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>378000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-15000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>532000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>316000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>303000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>150000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>48000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>317000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>372000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>364000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>358000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>334000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>378000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>355000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>326000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>431000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>275000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>272000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>208000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>239142000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>127004000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>174540000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>171314000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>178352000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>152588000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>196206000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>165854000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>163614000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>155016000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>164619000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>149143000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>158172000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>178836000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>151000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>153274000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.4498</v>
+      </c>
+      <c r="C24">
         <v>0.4138</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.3754</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.3212</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.2594</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.2584</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.0133</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.5228</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.3106</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.2979</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.1476</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.0472</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.3085</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.3594</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.3484</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.3419</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.3169</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.3485</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.3218</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.3008</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.3989</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.2532</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.2498</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.1915</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.218</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.1353</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.2187</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.2153</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.2241</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.1905</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.2432</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.2048</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.2013</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.1899</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.2004</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.1798</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.1902</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.2154</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.1809</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.1822</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>0.4421</v>
+      </c>
+      <c r="C25">
         <v>0.4075</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.3697</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.3155</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.2561</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.2541</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-0.0133</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.511</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.3052</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.2938</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.1458</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.0464</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.303</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.3539</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.3433</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.3359</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.311</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.3425</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.3162</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.2898</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.3623</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.2485</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.2454</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.1876</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.2142</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.1334</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.2154</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.2119</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.2202</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.1874</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.2392</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.2013</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.198</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.1869</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.1972</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.177</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.1877</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.2126</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.1789</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.1806</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>0.4498</v>
+      </c>
+      <c r="C26">
         <v>0.4138</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.3754</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.3212</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.2594</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.2584</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-0.0133</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.5228</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.3106</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.2979</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.1476</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.0472</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.3085</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.3594</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.3484</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.3419</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.3169</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.3485</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.3218</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.3008</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.3989</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.2532</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.2498</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.1915</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.218</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.1353</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.2187</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.2153</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.2241</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.1905</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.2432</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.2048</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.2013</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.1899</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.2004</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.1798</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.1902</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.2154</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.1809</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.1822</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>0.4421</v>
+      </c>
+      <c r="C27">
         <v>0.4075</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.3697</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.3155</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.2561</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.2541</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-0.0133</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.511</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.3052</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.2938</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.1458</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.0464</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.303</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.3539</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.3433</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.3359</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.311</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.3425</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.3162</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.2898</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.3623</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.2485</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.2454</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.1876</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.2142</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.1334</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.2154</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.2119</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.2202</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.1874</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.2392</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.2013</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.198</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.1869</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.1972</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.177</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.1877</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.2126</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.1789</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0.1806</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>1465000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1463000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1464000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1471000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1487000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1094000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1041000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1036000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1031000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1029000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1035000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1047123000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1051273000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1060280000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1065638000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1073055000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1103740000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1122612000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1124778000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>1130117000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1106491000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1108527000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1108617000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1104358000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>952081000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>810371000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>808349000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>810143000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>814326000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>820238000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>823809000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>825338000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>829623000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>834687000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>842677000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>842324000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>841015000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>843840000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>848708000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3908,126 +4097,132 @@
       <c r="AN29">
         <v>0</v>
       </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>0.4455</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.5698</v>
+        <v>0.4054</v>
       </c>
       <c r="D30">
-        <v>0.5069</v>
+        <v>0.5369</v>
       </c>
       <c r="E30">
-        <v>0.3043</v>
+        <v>0.5012</v>
       </c>
       <c r="F30">
-        <v>0.3453</v>
+        <v>0.2929</v>
       </c>
       <c r="G30">
+        <v>0.3316</v>
+      </c>
+      <c r="H30">
         <v>0.797</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.0878</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.0497</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.4153</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.164</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.3728</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.4888</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.0319</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.2462</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.3578</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.4202</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.4018</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.2355</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.2394</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.6872</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.4547</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.1392</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.3498</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.4604</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.4005</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.1134</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.24</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.7737000000000001</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.3976</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.1286</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-0.0249</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.3503</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.3295</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.304</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.2163</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.2778</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.5639999999999999</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.276</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.2935</v>
       </c>
     </row>
